--- a/data-raw/fluxes/lf_05/lf_05_b_2018-11-20.xlsx
+++ b/data-raw/fluxes/lf_05/lf_05_b_2018-11-20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Documents/data_working/data_packages/hypoxia.flux.analysis.1/inst/extdata/fluxes/lf_05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/lf_05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A59C7E9-9274-0849-B734-01435468D4FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54647552-50A1-1246-AE64-0B68965390A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15680" yWindow="560" windowWidth="26260" windowHeight="25380" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -196,9 +196,6 @@
     <t>2 Valine</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>21%</t>
   </si>
   <si>
@@ -210,15 +207,12 @@
   <si>
     <t>oxygen</t>
   </si>
-  <si>
-    <t>none</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -564,193 +558,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473DBDA-133C-8E46-809A-4027CD08C62D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>-24</v>
+      </c>
+      <c r="C2">
+        <v>40.109099999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>51.908000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>51.543500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>51.3157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>51.018099999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>50.754199999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2">
+      <c r="B8">
         <v>-24</v>
       </c>
-      <c r="D2">
-        <v>40.109099999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="C8">
+        <v>40.179900000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3">
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>51.908000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="C9">
+        <v>51.837899999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4">
+      <c r="B10">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>51.543500000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="C10">
+        <v>51.565399999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5">
+      <c r="B11">
         <v>48</v>
       </c>
-      <c r="D5">
-        <v>51.3157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="C11">
+        <v>51.435699999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6">
+      <c r="B12">
         <v>72</v>
       </c>
-      <c r="D6">
-        <v>51.018099999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="C12">
+        <v>51.264000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
+      <c r="B13">
         <v>96</v>
       </c>
-      <c r="D7">
-        <v>50.754199999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8">
-        <v>-24</v>
-      </c>
-      <c r="D8">
-        <v>40.179900000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>51.837899999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>51.565399999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <v>51.435699999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12">
-        <v>72</v>
-      </c>
-      <c r="D12">
-        <v>51.264000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C13">
-        <v>96</v>
-      </c>
-      <c r="D13">
         <v>51.021799999999999</v>
       </c>
     </row>
@@ -767,11 +722,11 @@
       <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -789,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -800,7 +755,7 @@
         <v>124695</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -812,7 +767,7 @@
         <v>3717475</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -824,7 +779,7 @@
         <v>6454558</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -836,7 +791,7 @@
         <v>13020303</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -848,7 +803,7 @@
         <v>25258430</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -859,7 +814,7 @@
         <v>47453068</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -876,7 +831,7 @@
         <v>2104140</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -894,7 +849,7 @@
         <v>3485026</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -912,7 +867,7 @@
         <v>1862143</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -930,7 +885,7 @@
         <v>3597938</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -948,7 +903,7 @@
         <v>5597802</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -966,7 +921,7 @@
         <v>5749476</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -984,7 +939,7 @@
         <v>8432488</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1002,7 +957,7 @@
         <v>9002581</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +975,7 @@
         <v>9199302</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1038,7 +993,7 @@
         <v>10821360</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1011,7 @@
         <v>10659541</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1029,7 @@
         <v>11754592</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1047,7 @@
         <v>15290519</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1065,7 @@
         <v>14931404</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +1083,7 @@
         <v>20419500</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1146,7 +1101,7 @@
         <v>2212640</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1119,7 @@
         <v>2327580</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1182,7 +1137,7 @@
         <v>1667192</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1155,7 @@
         <v>2655862</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1218,7 +1173,7 @@
         <v>2676523</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1236,7 +1191,7 @@
         <v>3207982</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1254,7 +1209,7 @@
         <v>2825328</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1272,7 +1227,7 @@
         <v>4850540</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +1245,7 @@
         <v>5934394</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1308,7 +1263,7 @@
         <v>6646624</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1326,7 +1281,7 @@
         <v>4086206</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1344,7 +1299,7 @@
         <v>3822562</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1362,7 +1317,7 @@
         <v>6643844</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1335,7 @@
         <v>5777010</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1411,11 +1366,11 @@
       <selection activeCell="A2" sqref="A2:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1427,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1393,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1449,7 +1404,7 @@
         <v>0.14369999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1415,7 @@
         <v>0.27579999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1471,7 +1426,7 @@
         <v>0.40139999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1482,7 +1437,7 @@
         <v>0.54530000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1493,7 +1448,7 @@
         <v>0.77549999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1504,7 +1459,7 @@
         <v>1.0617000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1515,7 +1470,7 @@
         <v>1.2972999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1526,7 +1481,7 @@
         <v>0.79510000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1538,7 +1493,7 @@
         <v>0.79500000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1550,7 +1505,7 @@
         <v>0.78590000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1562,7 +1517,7 @@
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1574,7 +1529,7 @@
         <v>0.75509999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1541,7 @@
         <v>0.7661</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1598,7 +1553,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +1565,7 @@
         <v>0.77259999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1622,7 +1577,7 @@
         <v>0.8135</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1634,7 +1589,7 @@
         <v>0.75760000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1646,7 +1601,7 @@
         <v>0.69140000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1658,7 +1613,7 @@
         <v>0.70679999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1670,7 +1625,7 @@
         <v>0.65359999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1682,7 +1637,7 @@
         <v>0.65559999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1649,7 @@
         <v>0.6371</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1706,7 +1661,7 @@
         <v>0.82879999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1718,7 +1673,7 @@
         <v>0.78769999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1730,7 +1685,7 @@
         <v>0.82809999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1742,7 +1697,7 @@
         <v>0.83309999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1754,7 +1709,7 @@
         <v>0.83079999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +1721,7 @@
         <v>0.80130000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1778,7 +1733,7 @@
         <v>0.77729999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1790,7 +1745,7 @@
         <v>0.76959999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1802,7 +1757,7 @@
         <v>0.83660000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1814,7 +1769,7 @@
         <v>0.80520000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +1781,7 @@
         <v>0.76180000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1838,7 +1793,7 @@
         <v>0.78459999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +1805,7 @@
         <v>0.77229999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1862,7 +1817,7 @@
         <v>0.7228</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1887,11 +1842,11 @@
       <selection activeCell="A2" sqref="A2:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1903,7 +1858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1914,7 +1869,7 @@
         <v>105156600</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1925,7 +1880,7 @@
         <v>143261008</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +1891,7 @@
         <v>191842656</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1947,7 +1902,7 @@
         <v>297953984</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1913,7 @@
         <v>524966048</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +1924,7 @@
         <v>1069314048</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +1935,7 @@
         <v>1580302464</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +1946,7 @@
         <v>2459445504</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2002,7 +1957,7 @@
         <v>110956304</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2014,7 +1969,7 @@
         <v>106276296</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +1981,7 @@
         <v>107298744</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2038,7 +1993,7 @@
         <v>188632112</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2050,7 +2005,7 @@
         <v>179696944</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2062,7 +2017,7 @@
         <v>174563328</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2074,7 +2029,7 @@
         <v>308381216</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2086,7 +2041,7 @@
         <v>307096192</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2098,7 +2053,7 @@
         <v>321156096</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2110,7 +2065,7 @@
         <v>617955136</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2122,7 +2077,7 @@
         <v>582776768</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2134,7 +2089,7 @@
         <v>594136960</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2146,7 +2101,7 @@
         <v>936895488</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2158,7 +2113,7 @@
         <v>903420288</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2170,7 +2125,7 @@
         <v>996119872</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2137,7 @@
         <v>108560296</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2194,7 +2149,7 @@
         <v>107691112</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2206,7 +2161,7 @@
         <v>107702384</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2173,7 @@
         <v>160941216</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2230,7 +2185,7 @@
         <v>152089760</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +2197,7 @@
         <v>147328464</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2254,7 +2209,7 @@
         <v>218068160</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2266,7 +2221,7 @@
         <v>200640608</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2278,7 +2233,7 @@
         <v>210654208</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2290,7 +2245,7 @@
         <v>361998496</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2302,7 +2257,7 @@
         <v>323256672</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2314,7 +2269,7 @@
         <v>329045408</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2326,7 +2281,7 @@
         <v>521831424</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2338,7 +2293,7 @@
         <v>442259008</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2363,11 +2318,11 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2379,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2390,7 +2345,7 @@
         <v>48449208</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2401,7 +2356,7 @@
         <v>65038516</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2412,7 +2367,7 @@
         <v>80348728</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2423,7 +2378,7 @@
         <v>133450944</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2434,7 +2389,7 @@
         <v>250020640</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2445,7 +2400,7 @@
         <v>368373024</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2456,7 +2411,7 @@
         <v>475940576</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2467,7 +2422,7 @@
         <v>597339584</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2478,7 +2433,7 @@
         <v>341721344</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2490,7 +2445,7 @@
         <v>352756256</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2502,7 +2457,7 @@
         <v>373429216</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2514,7 +2469,7 @@
         <v>360802624</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2481,7 @@
         <v>355127392</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2538,7 +2493,7 @@
         <v>372780160</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2550,7 +2505,7 @@
         <v>351729632</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2562,7 +2517,7 @@
         <v>361399776</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2574,7 +2529,7 @@
         <v>336938400</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2586,7 +2541,7 @@
         <v>341102240</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2598,7 +2553,7 @@
         <v>310353984</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2610,7 +2565,7 @@
         <v>325056608</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2621,7 +2576,7 @@
         <v>362650848</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2633,7 +2588,7 @@
         <v>369834720</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2645,7 +2600,7 @@
         <v>359991136</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2657,7 +2612,7 @@
         <v>375211616</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2669,7 +2624,7 @@
         <v>356666752</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2681,7 +2636,7 @@
         <v>362430464</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2693,7 +2648,7 @@
         <v>358169280</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2705,7 +2660,7 @@
         <v>356436384</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2717,7 +2672,7 @@
         <v>348734592</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2729,7 +2684,7 @@
         <v>362771328</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2741,7 +2696,7 @@
         <v>364804928</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2753,7 +2708,7 @@
         <v>347454816</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2764,7 +2719,7 @@
         <v>345537920</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2776,7 +2731,7 @@
         <v>363835264</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2788,7 +2743,7 @@
         <v>365723648</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2800,7 +2755,7 @@
         <v>383410144</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2812,7 +2767,7 @@
         <v>381577920</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2824,7 +2779,7 @@
         <v>374916800</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2836,7 +2791,7 @@
         <v>401327520</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2848,7 +2803,7 @@
         <v>409135552</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2860,7 +2815,7 @@
         <v>391873952</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2872,7 +2827,7 @@
         <v>408672352</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2884,7 +2839,7 @@
         <v>386366688</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2896,7 +2851,7 @@
         <v>404716352</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2907,7 +2862,7 @@
         <v>382816608</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2919,7 +2874,7 @@
         <v>388984480</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2931,7 +2886,7 @@
         <v>400502624</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2943,7 +2898,7 @@
         <v>385361312</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2955,7 +2910,7 @@
         <v>388170752</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2967,7 +2922,7 @@
         <v>402338624</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2979,7 +2934,7 @@
         <v>433598176</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2991,7 +2946,7 @@
         <v>401715808</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3016,11 +2971,11 @@
       <selection activeCell="AU53" sqref="AU53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3164,7 +3119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3304,7 +3259,7 @@
         <v>33.033099999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3447,7 +3402,7 @@
         <v>85.6404</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3590,7 +3545,7 @@
         <v>367.70479999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3733,7 +3688,7 @@
         <v>928.88869999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3876,7 +3831,7 @@
         <v>2378.9951000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4013,7 +3968,7 @@
         <v>1827.3063</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4150,7 +4105,7 @@
         <v>1633.5048999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4287,7 +4242,7 @@
         <v>2101.6244999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4424,7 +4379,7 @@
         <v>2255.4364999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4564,7 +4519,7 @@
         <v>2213.3027000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4704,7 +4659,7 @@
         <v>2215.4692</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4841,7 +4796,7 @@
         <v>2130.8978999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4978,7 +4933,7 @@
         <v>2285.1430999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5118,7 +5073,7 @@
         <v>2280.7795000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5255,7 +5210,7 @@
         <v>1866.0409</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5392,7 +5347,7 @@
         <v>1849.5065999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5532,7 +5487,7 @@
         <v>2309.5275999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -5672,7 +5627,7 @@
         <v>2288.0315000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -5812,7 +5767,7 @@
         <v>2079.9926999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5952,7 +5907,7 @@
         <v>2266.261</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6089,7 +6044,7 @@
         <v>2139.3009999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6229,7 +6184,7 @@
         <v>2138.9346</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6366,7 +6321,7 @@
         <v>1689.8427999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6503,7 +6458,7 @@
         <v>1846.7192</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6643,7 +6598,7 @@
         <v>2205.6785</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -6783,7 +6738,7 @@
         <v>2293.5219999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -6923,7 +6878,7 @@
         <v>2262.6394</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -7063,7 +7018,7 @@
         <v>2198.3930999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -7200,7 +7155,7 @@
         <v>1895.7563</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -7340,7 +7295,7 @@
         <v>2264.7622000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -7480,7 +7435,7 @@
         <v>2142.3452000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -7620,7 +7575,7 @@
         <v>2048.8904000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -7757,7 +7712,7 @@
         <v>1739.9867999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -7894,7 +7849,7 @@
         <v>1828.3646000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -8034,7 +7989,7 @@
         <v>1998.8834999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -8174,7 +8129,7 @@
         <v>2094.5675999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -8314,7 +8269,7 @@
         <v>2264.4697000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -8454,7 +8409,7 @@
         <v>2181.2451000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -8594,7 +8549,7 @@
         <v>2290.0695999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -8734,7 +8689,7 @@
         <v>2315.7975999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -8874,7 +8829,7 @@
         <v>2184.6921000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -9014,7 +8969,7 @@
         <v>2115.8193000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -9154,7 +9109,7 @@
         <v>2206.9884999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -9294,7 +9249,7 @@
         <v>2317.6831000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -9434,7 +9389,7 @@
         <v>2274.5297999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -9574,7 +9529,7 @@
         <v>2095.7345999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -9714,7 +9669,7 @@
         <v>2138.4971</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -9854,7 +9809,7 @@
         <v>2255.0421999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -9994,7 +9949,7 @@
         <v>2119.4376999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -10134,7 +10089,7 @@
         <v>2189.0844999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -10274,7 +10229,7 @@
         <v>2106.6172000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -10411,7 +10366,7 @@
         <v>2107.2887999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -10548,7 +10503,7 @@
         <v>2076.3146999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -10685,7 +10640,7 @@
         <v>2073.5985999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -10822,7 +10777,7 @@
         <v>2062.4578000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -10959,7 +10914,7 @@
         <v>2174.5749999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -11099,7 +11054,7 @@
         <v>2330.1406000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -11239,7 +11194,7 @@
         <v>2218.6462000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -11379,7 +11334,7 @@
         <v>2318.2437</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -11516,7 +11471,7 @@
         <v>2154.7183</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -11656,7 +11611,7 @@
         <v>2122.6327999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
